--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H2">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I2">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J2">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02507166666666667</v>
+        <v>0.04154133333333333</v>
       </c>
       <c r="N2">
-        <v>0.075215</v>
+        <v>0.124624</v>
       </c>
       <c r="O2">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="P2">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="Q2">
-        <v>0.03275311554277778</v>
+        <v>0.003668265898666666</v>
       </c>
       <c r="R2">
-        <v>0.294778039885</v>
+        <v>0.033014393088</v>
       </c>
       <c r="S2">
-        <v>0.0006135798030466163</v>
+        <v>0.0001100558481767108</v>
       </c>
       <c r="T2">
-        <v>0.0006135798030466162</v>
+        <v>0.0001100558481767108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H3">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I3">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J3">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>40.267417</v>
       </c>
       <c r="O3">
-        <v>0.8141137727328104</v>
+        <v>0.8133013372545576</v>
       </c>
       <c r="P3">
-        <v>0.8141137727328106</v>
+        <v>0.8133013372545578</v>
       </c>
       <c r="Q3">
-        <v>17.53484493266255</v>
+        <v>1.185257996922667</v>
       </c>
       <c r="R3">
-        <v>157.813604393963</v>
+        <v>10.667321972304</v>
       </c>
       <c r="S3">
-        <v>0.3284886497647539</v>
+        <v>0.03556028318638708</v>
       </c>
       <c r="T3">
-        <v>0.3284886497647539</v>
+        <v>0.03556028318638708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H4">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I4">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J4">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.119026</v>
       </c>
       <c r="O4">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="P4">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="Q4">
-        <v>3.970970048734889</v>
+        <v>0.2684154906346666</v>
       </c>
       <c r="R4">
-        <v>35.738730438614</v>
+        <v>2.415739415712</v>
       </c>
       <c r="S4">
-        <v>0.07439008411961673</v>
+        <v>0.008053040674151675</v>
       </c>
       <c r="T4">
-        <v>0.07439008411961673</v>
+        <v>0.008053040674151675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.217686</v>
       </c>
       <c r="I5">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J5">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02507166666666667</v>
+        <v>0.04154133333333333</v>
       </c>
       <c r="N5">
-        <v>0.075215</v>
+        <v>0.124624</v>
       </c>
       <c r="O5">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="P5">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="Q5">
-        <v>0.02689091694333333</v>
+        <v>0.04455565556266666</v>
       </c>
       <c r="R5">
-        <v>0.24201825249</v>
+        <v>0.401000900064</v>
       </c>
       <c r="S5">
-        <v>0.0005037604285394965</v>
+        <v>0.00133676527260497</v>
       </c>
       <c r="T5">
-        <v>0.0005037604285394967</v>
+        <v>0.00133676527260497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.217686</v>
       </c>
       <c r="I6">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J6">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>40.267417</v>
       </c>
       <c r="O6">
-        <v>0.8141137727328104</v>
+        <v>0.8133013372545576</v>
       </c>
       <c r="P6">
-        <v>0.8141137727328106</v>
+        <v>0.8133013372545578</v>
       </c>
       <c r="Q6">
         <v>14.39643377078466</v>
@@ -818,10 +818,10 @@
         <v>129.567903937062</v>
       </c>
       <c r="S6">
-        <v>0.2696952900897242</v>
+        <v>0.4319239044092872</v>
       </c>
       <c r="T6">
-        <v>0.2696952900897243</v>
+        <v>0.4319239044092872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.217686</v>
       </c>
       <c r="I7">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J7">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.119026</v>
       </c>
       <c r="O7">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="P7">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="Q7">
         <v>3.260240254870666</v>
@@ -880,10 +880,10 @@
         <v>29.342162293836</v>
       </c>
       <c r="S7">
-        <v>0.06107564243332859</v>
+        <v>0.09781420333789485</v>
       </c>
       <c r="T7">
-        <v>0.06107564243332861</v>
+        <v>0.09781420333789485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.57622</v>
       </c>
       <c r="I8">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J8">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02507166666666667</v>
+        <v>0.04154133333333333</v>
       </c>
       <c r="N8">
-        <v>0.075215</v>
+        <v>0.124624</v>
       </c>
       <c r="O8">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="P8">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="Q8">
-        <v>0.02153004303333334</v>
+        <v>0.03567320458666667</v>
       </c>
       <c r="R8">
-        <v>0.1937703873</v>
+        <v>0.32105884128</v>
       </c>
       <c r="S8">
-        <v>0.000403332609587145</v>
+        <v>0.001070272683720654</v>
       </c>
       <c r="T8">
-        <v>0.0004033326095871449</v>
+        <v>0.001070272683720654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.57622</v>
       </c>
       <c r="I9">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J9">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>40.267417</v>
       </c>
       <c r="O9">
-        <v>0.8141137727328104</v>
+        <v>0.8133013372545576</v>
       </c>
       <c r="P9">
-        <v>0.8141137727328106</v>
+        <v>0.8133013372545578</v>
       </c>
       <c r="Q9">
         <v>11.52641389152667</v>
@@ -1004,10 +1004,10 @@
         <v>103.73772502374</v>
       </c>
       <c r="S9">
-        <v>0.2159298328783323</v>
+        <v>0.3458171496588834</v>
       </c>
       <c r="T9">
-        <v>0.2159298328783323</v>
+        <v>0.3458171496588835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.57622</v>
       </c>
       <c r="I10">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J10">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>9.119026</v>
       </c>
       <c r="O10">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="P10">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="Q10">
         <v>2.610290795746667</v>
@@ -1066,10 +1066,10 @@
         <v>23.49261716172</v>
       </c>
       <c r="S10">
-        <v>0.04889982787307085</v>
+        <v>0.07831432492889348</v>
       </c>
       <c r="T10">
-        <v>0.04889982787307084</v>
+        <v>0.07831432492889348</v>
       </c>
     </row>
   </sheetData>
